--- a/teaching/traditional_assets/database/data/papua_new_guinea/papua_new_guinea_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/papua_new_guinea/papua_new_guinea_bank_money_center.xlsx
@@ -590,8 +590,14 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.382</v>
+      </c>
+      <c r="E2">
+        <v>0.457</v>
+      </c>
       <c r="F2">
-        <v>0.203</v>
+        <v>0.217</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -600,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01451848238535465</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009926437504194967</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.1</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>0.3106995884773662</v>
+        <v>0.2592087312414734</v>
       </c>
       <c r="M2">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="N2">
-        <v>0.05850191361399672</v>
+        <v>0.0625</v>
       </c>
       <c r="O2">
-        <v>0.7086092715231788</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="P2">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="Q2">
-        <v>0.05850191361399672</v>
+        <v>0.0625</v>
       </c>
       <c r="R2">
-        <v>0.7086092715231788</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,67 +642,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>53.6</v>
+        <v>87</v>
       </c>
       <c r="V2">
-        <v>0.2930563149261892</v>
+        <v>0.438508064516129</v>
       </c>
       <c r="W2">
-        <v>0.1930946291560102</v>
+        <v>0.236612702366127</v>
       </c>
       <c r="X2">
-        <v>0.06499370935658492</v>
+        <v>0.05991588066491206</v>
       </c>
       <c r="Y2">
-        <v>0.1281009197994253</v>
+        <v>0.176696821701215</v>
       </c>
       <c r="Z2">
-        <v>2.960524732305711</v>
+        <v>7.881720430107529</v>
       </c>
       <c r="AA2">
-        <v>0.02938746373485617</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06416437390078102</v>
+        <v>0.05907453693797746</v>
       </c>
       <c r="AC2">
-        <v>-0.03477691016592484</v>
+        <v>-0.05907453693797746</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="AE2">
-        <v>8.922008780358821</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>18.92200878035882</v>
+        <v>14.4</v>
       </c>
       <c r="AG2">
-        <v>-34.67799121964118</v>
+        <v>-72.59999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.09375592332425689</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="AI2">
-        <v>0.1907037462045867</v>
+        <v>0.1324747010119595</v>
       </c>
       <c r="AJ2">
-        <v>-0.2339597979071271</v>
+        <v>-0.5771065182829888</v>
       </c>
       <c r="AK2">
-        <v>-0.7601153948874505</v>
+        <v>-3.345622119815668</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>4.016064257028112</v>
-      </c>
-      <c r="AP2">
-        <v>-13.92690410427356</v>
       </c>
     </row>
     <row r="3">
@@ -715,8 +715,14 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.382</v>
+      </c>
+      <c r="E3">
+        <v>0.457</v>
+      </c>
       <c r="F3">
-        <v>0.203</v>
+        <v>0.217</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -725,34 +731,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01451848238535465</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009926437504194967</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.1</v>
+        <v>19</v>
       </c>
       <c r="L3">
-        <v>0.3106995884773662</v>
+        <v>0.2592087312414734</v>
       </c>
       <c r="M3">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="N3">
-        <v>0.05850191361399672</v>
+        <v>0.0625</v>
       </c>
       <c r="O3">
-        <v>0.7086092715231788</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="P3">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="Q3">
-        <v>0.05850191361399672</v>
+        <v>0.0625</v>
       </c>
       <c r="R3">
-        <v>0.7086092715231788</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,67 +767,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>53.6</v>
+        <v>87</v>
       </c>
       <c r="V3">
-        <v>0.2930563149261892</v>
+        <v>0.438508064516129</v>
       </c>
       <c r="W3">
-        <v>0.1930946291560102</v>
+        <v>0.236612702366127</v>
       </c>
       <c r="X3">
-        <v>0.06499370935658492</v>
+        <v>0.05991588066491206</v>
       </c>
       <c r="Y3">
-        <v>0.1281009197994253</v>
+        <v>0.176696821701215</v>
       </c>
       <c r="Z3">
-        <v>2.960524732305711</v>
+        <v>7.881720430107529</v>
       </c>
       <c r="AA3">
-        <v>0.02938746373485617</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06416437390078102</v>
+        <v>0.05907453693797746</v>
       </c>
       <c r="AC3">
-        <v>-0.03477691016592484</v>
+        <v>-0.05907453693797746</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="AE3">
-        <v>8.922008780358821</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>18.92200878035882</v>
+        <v>14.4</v>
       </c>
       <c r="AG3">
-        <v>-34.67799121964118</v>
+        <v>-72.59999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.09375592332425689</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="AI3">
-        <v>0.1907037462045867</v>
+        <v>0.1324747010119595</v>
       </c>
       <c r="AJ3">
-        <v>-0.2339597979071271</v>
+        <v>-0.5771065182829888</v>
       </c>
       <c r="AK3">
-        <v>-0.7601153948874505</v>
+        <v>-3.345622119815668</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>4.016064257028112</v>
-      </c>
-      <c r="AP3">
-        <v>-13.92690410427356</v>
       </c>
     </row>
   </sheetData>
